--- a/src/test/resources/testfiles/upload/Category_Master.xlsx
+++ b/src/test/resources/testfiles/upload/Category_Master.xlsx
@@ -1,38 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smehta\eclipse-workspace\sc-qa-taf-workbench\src\test\resources\testfiles\upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\praveen\Desktop\New folder (9)\Bulk upload optimization\500 Line Item For IM PD\For item Master-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7930E54-CECB-4FDE-AE56-DF75127EE1FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92334952-A945-4F63-8F36-26E64846E7C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0B4019B4-148E-4314-AB7A-44BB0D6A7261}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Category</t>
   </si>
@@ -40,28 +33,58 @@
     <t>Sub Category</t>
   </si>
   <si>
-    <t>Category-1</t>
-  </si>
-  <si>
-    <t>Sub Category-1</t>
-  </si>
-  <si>
-    <t>Category-2</t>
-  </si>
-  <si>
-    <t>Sub Category-2</t>
-  </si>
-  <si>
-    <t>Category-3</t>
-  </si>
-  <si>
-    <t>Sub Category-3</t>
-  </si>
-  <si>
-    <t>Sub Category-4</t>
-  </si>
-  <si>
-    <t>Category-4</t>
+    <t>Cat KK 001</t>
+  </si>
+  <si>
+    <t>Sub Cat KK 001</t>
+  </si>
+  <si>
+    <t>Cat KK 002</t>
+  </si>
+  <si>
+    <t>Cat KK 003</t>
+  </si>
+  <si>
+    <t>Cat KK 004</t>
+  </si>
+  <si>
+    <t>Cat KK 005</t>
+  </si>
+  <si>
+    <t>Cat KK 006</t>
+  </si>
+  <si>
+    <t>Cat KK 007</t>
+  </si>
+  <si>
+    <t>Cat KK 008</t>
+  </si>
+  <si>
+    <t>Cat KK 009</t>
+  </si>
+  <si>
+    <t>Sub Cat KK 002</t>
+  </si>
+  <si>
+    <t>Sub Cat KK 003</t>
+  </si>
+  <si>
+    <t>Sub Cat KK 004</t>
+  </si>
+  <si>
+    <t>Sub Cat KK 005</t>
+  </si>
+  <si>
+    <t>Sub Cat KK 006</t>
+  </si>
+  <si>
+    <t>Sub Cat KK 007</t>
+  </si>
+  <si>
+    <t>Sub Cat KK 008</t>
+  </si>
+  <si>
+    <t>Sub Cat KK 009</t>
   </si>
 </sst>
 </file>
@@ -77,6 +100,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,19 +113,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -113,7 +142,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -148,7 +177,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -160,7 +189,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -207,23 +236,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -259,23 +271,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -427,20 +422,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F64A01A-7570-4791-876D-11EBE8CC5F7E}">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,7 +443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -456,33 +451,72 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/testfiles/upload/Category_Master.xlsx
+++ b/src/test/resources/testfiles/upload/Category_Master.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\praveen\Desktop\New folder (9)\Bulk upload optimization\500 Line Item For IM PD\For item Master-1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92334952-A945-4F63-8F36-26E64846E7C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A921F299-5D12-4150-9BA8-C8C78AA0D4C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Category</t>
   </si>
@@ -85,6 +81,54 @@
   </si>
   <si>
     <t>Sub Cat KK 009</t>
+  </si>
+  <si>
+    <t>Cat KK 010</t>
+  </si>
+  <si>
+    <t>Cat KK 011</t>
+  </si>
+  <si>
+    <t>Cat KK 012</t>
+  </si>
+  <si>
+    <t>Cat KK 013</t>
+  </si>
+  <si>
+    <t>Cat KK 014</t>
+  </si>
+  <si>
+    <t>Cat KK 015</t>
+  </si>
+  <si>
+    <t>Cat KK 016</t>
+  </si>
+  <si>
+    <t>Cat KK 017</t>
+  </si>
+  <si>
+    <t>Sub Cat KK 010</t>
+  </si>
+  <si>
+    <t>Sub Cat KK 011</t>
+  </si>
+  <si>
+    <t>Sub Cat KK 012</t>
+  </si>
+  <si>
+    <t>Sub Cat KK 013</t>
+  </si>
+  <si>
+    <t>Sub Cat KK 014</t>
+  </si>
+  <si>
+    <t>Sub Cat KK 015</t>
+  </si>
+  <si>
+    <t>Sub Cat KK 016</t>
+  </si>
+  <si>
+    <t>Sub Cat KK 017</t>
   </si>
 </sst>
 </file>
@@ -423,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,6 +559,70 @@
         <v>19</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
